--- a/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_15.08.2024_output.xlsx
+++ b/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_15.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731699869.4535153</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731699869.7060173</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699869.4535153.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699869.7060173.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>11.977</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>11.976</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.001000000000001222</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
+        <v>0.0009999999999994458</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731699870.2346315</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731699870.494177</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699870.2346315.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699870.494177.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>11.958</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>11.972</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.01399999999999935</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731699871.0230095</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731699871.5460525</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699871.0230095.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699871.5460525.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>11.994</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>11.982</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.01200000000000045</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731699872.9678915</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731699873.171998</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699872.9678915.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699873.171998.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>11.982</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>11.99</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.008000000000000895</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731699874.1708617</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731699874.254987</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699874.1708617.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699874.254987.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>12.007</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>11.992</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.01499999999999879</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731699874.9366934</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731699876.8199224</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699874.9366934.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699876.8199224.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>12.021</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>12.054</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.03299999999999947</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731699877.3355749</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731699877.4265194</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699877.3355749.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699877.4265194.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>12.053</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>12.048</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.005000000000000782</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731699877.5754688</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731699877.7332137</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699877.5754688.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699877.7332137.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>12.041</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>12.048</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.006999999999999673</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731699877.9220552</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731699878.7464776</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699877.9220552.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699878.7464776.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>12.055</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>12.073</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.01800000000000068</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731699879.1402938</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731699879.727743</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699879.1402938.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699879.727743.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>12.055</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>12.06</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.005000000000000782</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731699880.2656715</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731699880.8928373</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699880.2656715.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699880.8928373.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>12.041</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>12.036</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.005000000000000782</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731699881.3328524</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731699881.943736</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699881.3328524.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699881.943736.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>12.022</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>12.024</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.001999999999998892</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731699882.1646807</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731699883.0438313</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699882.1646807.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699883.0438313.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>12.034</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>12.039</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.004999999999999005</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1215,43 +1309,49 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731699885.1680543</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731699885.1680543.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731699885.1680543.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>12.052</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>12.052</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1313,13 +1413,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.008000000000000895</v>
+        <v>0.007999999999999119</v>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0005714285714286353</v>
+        <v>0.0005714285714285085</v>
       </c>
       <c r="E2" t="n">
         <v>0.07999999999999997</v>
